--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -887,6 +887,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Queue from Scratch</t>
@@ -1665,11 +1668,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A294" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D303" activeCellId="0" sqref="D303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -4767,7 +4770,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4775,10 +4778,10 @@
         <v>287</v>
       </c>
       <c r="B297" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,43 +4789,43 @@
         <v>287</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,10 +4833,10 @@
         <v>287</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,10 +4844,10 @@
         <v>287</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,7 +4855,7 @@
         <v>287</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -4863,7 +4866,7 @@
         <v>287</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -4874,7 +4877,7 @@
         <v>287</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -4885,7 +4888,7 @@
         <v>287</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -4896,7 +4899,7 @@
         <v>287</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -4907,7 +4910,7 @@
         <v>287</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -4918,7 +4921,7 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -4929,7 +4932,7 @@
         <v>287</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -4940,7 +4943,7 @@
         <v>287</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -4951,7 +4954,7 @@
         <v>287</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -4962,7 +4965,7 @@
         <v>287</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -4973,7 +4976,7 @@
         <v>287</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -4984,7 +4987,7 @@
         <v>287</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -4995,7 +4998,7 @@
         <v>287</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5006,7 +5009,7 @@
         <v>287</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5017,7 +5020,7 @@
         <v>287</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5028,7 +5031,7 @@
         <v>287</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5039,7 +5042,7 @@
         <v>287</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5050,7 +5053,7 @@
         <v>287</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5061,7 +5064,7 @@
         <v>287</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5072,7 +5075,7 @@
         <v>287</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5083,7 +5086,7 @@
         <v>287</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5094,7 +5097,7 @@
         <v>287</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5105,7 +5108,7 @@
         <v>287</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5116,7 +5119,7 @@
         <v>287</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5127,7 +5130,7 @@
         <v>287</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5138,7 +5141,7 @@
         <v>287</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5149,7 +5152,7 @@
         <v>287</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5160,7 +5163,7 @@
         <v>287</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5171,7 +5174,7 @@
         <v>287</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5187,10 +5190,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5198,10 +5201,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5209,10 +5212,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5220,10 +5223,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5231,10 +5234,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -5242,10 +5245,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -5253,10 +5256,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -5264,10 +5267,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -5275,10 +5278,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -5286,10 +5289,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -5297,10 +5300,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -5308,10 +5311,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -5319,10 +5322,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -5330,10 +5333,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -5341,10 +5344,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -5352,10 +5355,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -5363,10 +5366,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -5374,10 +5377,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -5393,10 +5396,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -5404,10 +5407,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -5415,10 +5418,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -5426,10 +5429,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -5437,10 +5440,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -5448,10 +5451,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
@@ -5459,10 +5462,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5470,10 +5473,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5481,10 +5484,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5492,10 +5495,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5503,10 +5506,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5514,10 +5517,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5525,10 +5528,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5536,10 +5539,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5547,10 +5550,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5558,10 +5561,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5569,10 +5572,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5580,10 +5583,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5591,10 +5594,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5602,10 +5605,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5613,10 +5616,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5624,10 +5627,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5635,10 +5638,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5646,10 +5649,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5657,10 +5660,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5668,10 +5671,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5679,10 +5682,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5690,10 +5693,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5701,10 +5704,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5712,10 +5715,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5723,10 +5726,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5734,10 +5737,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5745,10 +5748,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5756,10 +5759,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5767,10 +5770,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5778,10 +5781,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5789,10 +5792,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5800,10 +5803,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5811,10 +5814,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5822,10 +5825,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -5833,10 +5836,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -5844,10 +5847,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -5855,10 +5858,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -5866,10 +5869,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -5885,10 +5888,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -5896,10 +5899,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -5907,10 +5910,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -5918,7 +5921,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>91</v>
@@ -5929,10 +5932,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -5940,10 +5943,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -5959,10 +5962,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -5981,10 +5984,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -5992,10 +5995,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6003,10 +6006,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6014,10 +6017,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6025,10 +6028,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6036,7 +6039,7 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>275</v>
@@ -6047,10 +6050,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6058,10 +6061,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6069,10 +6072,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6080,10 +6083,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6091,10 +6094,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6102,10 +6105,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6113,10 +6116,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6124,10 +6127,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6135,10 +6138,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6146,10 +6149,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6157,10 +6160,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6168,10 +6171,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6179,10 +6182,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6190,10 +6193,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6201,10 +6204,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6212,10 +6215,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6223,10 +6226,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6234,10 +6237,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6245,10 +6248,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6256,10 +6259,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6267,10 +6270,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6278,10 +6281,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6289,10 +6292,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6300,10 +6303,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6311,10 +6314,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6322,10 +6325,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6333,10 +6336,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6344,10 +6347,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6355,10 +6358,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6366,10 +6369,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6377,10 +6380,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6388,10 +6391,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6399,10 +6402,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6410,10 +6413,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6421,10 +6424,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6432,10 +6435,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6443,10 +6446,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6454,10 +6457,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6465,10 +6468,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6476,10 +6479,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6487,10 +6490,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6498,10 +6501,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6509,10 +6512,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6520,10 +6523,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6531,10 +6534,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6542,10 +6545,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6553,10 +6556,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6564,10 +6567,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6575,10 +6578,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6586,10 +6589,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6597,10 +6600,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6608,10 +6611,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6628,10 +6631,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6639,10 +6642,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6650,10 +6653,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6661,10 +6664,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6672,10 +6675,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6683,10 +6686,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6694,10 +6697,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6705,10 +6708,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6716,10 +6719,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6727,10 +6730,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1668,8 +1668,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A294" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D303" activeCellId="0" sqref="D303"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D309" activeCellId="0" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4858,7 +4858,7 @@
         <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,10 +4869,10 @@
         <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -4880,10 +4880,10 @@
         <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,7 +4902,7 @@
         <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +4913,7 @@
         <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1668,8 +1668,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D309" activeCellId="0" sqref="D309"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C311" activeCellId="0" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4924,7 +4924,7 @@
         <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1672,7 +1672,7 @@
       <selection pane="topLeft" activeCell="C311" activeCellId="0" sqref="C311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1668,11 +1668,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C311" activeCellId="0" sqref="C311"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D472" activeCellId="0" sqref="D472"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5402,7 +5402,7 @@
         <v>347</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,7 +5413,7 @@
         <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +5424,7 @@
         <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,7 +5435,7 @@
         <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,7 +5446,7 @@
         <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,7 +6637,7 @@
         <v>457</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1646,11 +1646,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C272" activeCellId="0" sqref="C272"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D364" activeCellId="0" sqref="D364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5491,7 +5491,7 @@
         <v>356</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1646,11 +1646,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D364" activeCellId="0" sqref="D364"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C317" activeCellId="0" sqref="C317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5002,7 +5002,7 @@
         <v>311</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1646,11 +1646,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C317" activeCellId="0" sqref="C317"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A204" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B215" activeCellId="0" sqref="B215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3889,7 +3889,7 @@
         <v>209</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1646,11 +1646,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A204" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B215" activeCellId="0" sqref="B215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,7 +3571,7 @@
         <v>180</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,7 +3582,7 @@
         <v>181</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1646,11 +1646,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,7 +3593,7 @@
         <v>182</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,7 +4991,7 @@
         <v>310</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5024,7 @@
         <v>313</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5862,7 @@
         <v>389</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="464">
   <si>
     <t xml:space="preserve">Topic:</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Problem: </t>
   </si>
   <si>
-    <t xml:space="preserve">Done [yes or no] </t>
+    <t xml:space="preserve">Yes [yes or no] </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;-&gt;</t>
@@ -881,9 +881,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Queue from Scratch</t>
@@ -1646,11 +1643,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2683,7 +2680,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2691,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2702,7 @@
         <v>100</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4735,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,10 +4743,10 @@
         <v>285</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,10 +4754,10 @@
         <v>285</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,10 +4765,10 @@
         <v>285</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,10 +4776,10 @@
         <v>285</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,10 +4787,10 @@
         <v>285</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,10 +4798,10 @@
         <v>285</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,10 +4809,10 @@
         <v>285</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,10 +4820,10 @@
         <v>285</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,10 +4831,10 @@
         <v>285</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,10 +4842,10 @@
         <v>285</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,10 +4853,10 @@
         <v>285</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,10 +4864,10 @@
         <v>285</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,10 +4875,10 @@
         <v>285</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,10 +4886,10 @@
         <v>285</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,7 +4897,7 @@
         <v>285</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -4911,7 +4908,7 @@
         <v>285</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -4922,7 +4919,7 @@
         <v>285</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -4933,7 +4930,7 @@
         <v>285</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -4944,7 +4941,7 @@
         <v>285</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -4955,7 +4952,7 @@
         <v>285</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -4966,7 +4963,7 @@
         <v>285</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -4977,7 +4974,7 @@
         <v>285</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -4988,7 +4985,7 @@
         <v>285</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>6</v>
@@ -4999,7 +4996,7 @@
         <v>285</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>6</v>
@@ -5010,7 +5007,7 @@
         <v>285</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5021,7 +5018,7 @@
         <v>285</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>6</v>
@@ -5032,7 +5029,7 @@
         <v>285</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5043,7 +5040,7 @@
         <v>285</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5054,7 +5051,7 @@
         <v>285</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5065,7 +5062,7 @@
         <v>285</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5076,7 +5073,7 @@
         <v>285</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5087,7 +5084,7 @@
         <v>285</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5098,7 +5095,7 @@
         <v>285</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5109,7 +5106,7 @@
         <v>285</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5120,7 +5117,7 @@
         <v>285</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5131,7 +5128,7 @@
         <v>285</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5142,7 +5139,7 @@
         <v>285</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5158,10 +5155,10 @@
     </row>
     <row r="333" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B333" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5169,10 +5166,10 @@
     </row>
     <row r="334" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5180,10 +5177,10 @@
     </row>
     <row r="335" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5191,10 +5188,10 @@
     </row>
     <row r="336" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5202,10 +5199,10 @@
     </row>
     <row r="337" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5213,10 +5210,10 @@
     </row>
     <row r="338" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5224,10 +5221,10 @@
     </row>
     <row r="339" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>3</v>
@@ -5235,10 +5232,10 @@
     </row>
     <row r="340" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>3</v>
@@ -5246,10 +5243,10 @@
     </row>
     <row r="341" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>3</v>
@@ -5257,10 +5254,10 @@
     </row>
     <row r="342" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5268,10 +5265,10 @@
     </row>
     <row r="343" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5279,10 +5276,10 @@
     </row>
     <row r="344" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5290,10 +5287,10 @@
     </row>
     <row r="345" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5301,10 +5298,10 @@
     </row>
     <row r="346" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5312,10 +5309,10 @@
     </row>
     <row r="347" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5323,10 +5320,10 @@
     </row>
     <row r="348" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5334,10 +5331,10 @@
     </row>
     <row r="349" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5345,10 +5342,10 @@
     </row>
     <row r="350" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5364,65 +5361,65 @@
     </row>
     <row r="353" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="C353" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>3</v>
@@ -5430,10 +5427,10 @@
     </row>
     <row r="359" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>3</v>
@@ -5441,10 +5438,10 @@
     </row>
     <row r="360" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>3</v>
@@ -5452,10 +5449,10 @@
     </row>
     <row r="361" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
@@ -5463,10 +5460,10 @@
     </row>
     <row r="362" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5474,10 +5471,10 @@
     </row>
     <row r="363" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5485,21 +5482,21 @@
     </row>
     <row r="364" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5507,10 +5504,10 @@
     </row>
     <row r="366" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5518,10 +5515,10 @@
     </row>
     <row r="367" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5529,10 +5526,10 @@
     </row>
     <row r="368" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5540,10 +5537,10 @@
     </row>
     <row r="369" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5551,10 +5548,10 @@
     </row>
     <row r="370" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5562,10 +5559,10 @@
     </row>
     <row r="371" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5573,10 +5570,10 @@
     </row>
     <row r="372" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5584,10 +5581,10 @@
     </row>
     <row r="373" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5595,10 +5592,10 @@
     </row>
     <row r="374" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5606,10 +5603,10 @@
     </row>
     <row r="375" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5617,10 +5614,10 @@
     </row>
     <row r="376" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5628,10 +5625,10 @@
     </row>
     <row r="377" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5639,10 +5636,10 @@
     </row>
     <row r="378" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5650,10 +5647,10 @@
     </row>
     <row r="379" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5661,10 +5658,10 @@
     </row>
     <row r="380" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5672,10 +5669,10 @@
     </row>
     <row r="381" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5683,10 +5680,10 @@
     </row>
     <row r="382" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5694,10 +5691,10 @@
     </row>
     <row r="383" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5705,10 +5702,10 @@
     </row>
     <row r="384" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5716,10 +5713,10 @@
     </row>
     <row r="385" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5727,10 +5724,10 @@
     </row>
     <row r="386" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5738,10 +5735,10 @@
     </row>
     <row r="387" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5749,10 +5746,10 @@
     </row>
     <row r="388" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5760,10 +5757,10 @@
     </row>
     <row r="389" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5771,10 +5768,10 @@
     </row>
     <row r="390" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5782,10 +5779,10 @@
     </row>
     <row r="391" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -5793,10 +5790,10 @@
     </row>
     <row r="392" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -5804,10 +5801,10 @@
     </row>
     <row r="393" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -5815,10 +5812,10 @@
     </row>
     <row r="394" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -5826,10 +5823,10 @@
     </row>
     <row r="395" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -5837,10 +5834,10 @@
     </row>
     <row r="396" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -5856,10 +5853,10 @@
     </row>
     <row r="399" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>6</v>
@@ -5867,10 +5864,10 @@
     </row>
     <row r="400" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>3</v>
@@ -5878,10 +5875,10 @@
     </row>
     <row r="401" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -5889,7 +5886,7 @@
     </row>
     <row r="402" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>89</v>
@@ -5900,10 +5897,10 @@
     </row>
     <row r="403" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -5911,10 +5908,10 @@
     </row>
     <row r="404" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -5930,21 +5927,21 @@
     </row>
     <row r="407" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B407" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B407" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="C407" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>3</v>
@@ -5952,10 +5949,10 @@
     </row>
     <row r="409" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>3</v>
@@ -5963,10 +5960,10 @@
     </row>
     <row r="410" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>3</v>
@@ -5974,10 +5971,10 @@
     </row>
     <row r="411" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>3</v>
@@ -5985,10 +5982,10 @@
     </row>
     <row r="412" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>3</v>
@@ -5996,10 +5993,10 @@
     </row>
     <row r="413" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>3</v>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="414" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>273</v>
@@ -6018,10 +6015,10 @@
     </row>
     <row r="415" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>3</v>
@@ -6029,10 +6026,10 @@
     </row>
     <row r="416" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>3</v>
@@ -6040,10 +6037,10 @@
     </row>
     <row r="417" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6051,10 +6048,10 @@
     </row>
     <row r="418" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6062,10 +6059,10 @@
     </row>
     <row r="419" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6073,10 +6070,10 @@
     </row>
     <row r="420" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6084,10 +6081,10 @@
     </row>
     <row r="421" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6095,10 +6092,10 @@
     </row>
     <row r="422" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6106,10 +6103,10 @@
     </row>
     <row r="423" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6117,10 +6114,10 @@
     </row>
     <row r="424" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6128,10 +6125,10 @@
     </row>
     <row r="425" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6139,10 +6136,10 @@
     </row>
     <row r="426" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6150,10 +6147,10 @@
     </row>
     <row r="427" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6161,10 +6158,10 @@
     </row>
     <row r="428" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6172,10 +6169,10 @@
     </row>
     <row r="429" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6183,10 +6180,10 @@
     </row>
     <row r="430" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6194,10 +6191,10 @@
     </row>
     <row r="431" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6205,10 +6202,10 @@
     </row>
     <row r="432" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6216,10 +6213,10 @@
     </row>
     <row r="433" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6227,10 +6224,10 @@
     </row>
     <row r="434" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6238,10 +6235,10 @@
     </row>
     <row r="435" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6249,10 +6246,10 @@
     </row>
     <row r="436" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6260,10 +6257,10 @@
     </row>
     <row r="437" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6271,10 +6268,10 @@
     </row>
     <row r="438" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6282,10 +6279,10 @@
     </row>
     <row r="439" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6293,10 +6290,10 @@
     </row>
     <row r="440" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6304,10 +6301,10 @@
     </row>
     <row r="441" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6315,10 +6312,10 @@
     </row>
     <row r="442" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6326,10 +6323,10 @@
     </row>
     <row r="443" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6337,10 +6334,10 @@
     </row>
     <row r="444" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6348,10 +6345,10 @@
     </row>
     <row r="445" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6359,10 +6356,10 @@
     </row>
     <row r="446" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6370,10 +6367,10 @@
     </row>
     <row r="447" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6381,10 +6378,10 @@
     </row>
     <row r="448" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6392,10 +6389,10 @@
     </row>
     <row r="449" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6403,10 +6400,10 @@
     </row>
     <row r="450" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6414,10 +6411,10 @@
     </row>
     <row r="451" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6425,10 +6422,10 @@
     </row>
     <row r="452" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6436,10 +6433,10 @@
     </row>
     <row r="453" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6447,10 +6444,10 @@
     </row>
     <row r="454" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6458,10 +6455,10 @@
     </row>
     <row r="455" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6469,10 +6466,10 @@
     </row>
     <row r="456" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6480,10 +6477,10 @@
     </row>
     <row r="457" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6491,10 +6488,10 @@
     </row>
     <row r="458" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6502,10 +6499,10 @@
     </row>
     <row r="459" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6513,10 +6510,10 @@
     </row>
     <row r="460" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6524,10 +6521,10 @@
     </row>
     <row r="461" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6535,10 +6532,10 @@
     </row>
     <row r="462" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6546,10 +6543,10 @@
     </row>
     <row r="463" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6557,10 +6554,10 @@
     </row>
     <row r="464" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6568,10 +6565,10 @@
     </row>
     <row r="465" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6579,10 +6576,10 @@
     </row>
     <row r="466" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6599,21 +6596,21 @@
     </row>
     <row r="469" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B469" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B469" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="C469" s="3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>3</v>
@@ -6621,10 +6618,10 @@
     </row>
     <row r="471" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6632,10 +6629,10 @@
     </row>
     <row r="472" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6643,10 +6640,10 @@
     </row>
     <row r="473" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6654,10 +6651,10 @@
     </row>
     <row r="474" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6665,10 +6662,10 @@
     </row>
     <row r="475" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>3</v>
@@ -6676,10 +6673,10 @@
     </row>
     <row r="476" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>3</v>
@@ -6687,10 +6684,10 @@
     </row>
     <row r="477" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
@@ -6698,10 +6695,10 @@
     </row>
     <row r="478" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1643,11 +1643,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D409" activeCellId="0" sqref="D409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5422,7 @@
         <v>349</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +5944,7 @@
         <v>395</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,7 +5955,7 @@
         <v>396</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,7 +6613,7 @@
         <v>455</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="466">
   <si>
     <t xml:space="preserve">Topic:</t>
   </si>
@@ -574,6 +574,9 @@
     <t xml:space="preserve">Bottom View of a tree</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
   </si>
   <si>
@@ -821,6 +824,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
   </si>
   <si>
     <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
@@ -1643,11 +1649,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D409" activeCellId="0" sqref="D409"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A230" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C235" activeCellId="0" sqref="C235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3601,7 +3607,7 @@
         <v>183</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3615,7 @@
         <v>171</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>3</v>
@@ -3620,7 +3626,7 @@
         <v>171</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>3</v>
@@ -3631,7 +3637,7 @@
         <v>171</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>3</v>
@@ -3642,7 +3648,7 @@
         <v>171</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>3</v>
@@ -3653,7 +3659,7 @@
         <v>171</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>3</v>
@@ -3664,7 +3670,7 @@
         <v>171</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>3</v>
@@ -3675,7 +3681,7 @@
         <v>171</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>3</v>
@@ -3686,7 +3692,7 @@
         <v>171</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>3</v>
@@ -3697,7 +3703,7 @@
         <v>171</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>3</v>
@@ -3708,7 +3714,7 @@
         <v>171</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>3</v>
@@ -3719,7 +3725,7 @@
         <v>171</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>3</v>
@@ -3730,7 +3736,7 @@
         <v>171</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -3741,7 +3747,7 @@
         <v>171</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>3</v>
@@ -3752,7 +3758,7 @@
         <v>171</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -3763,7 +3769,7 @@
         <v>171</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>3</v>
@@ -3774,7 +3780,7 @@
         <v>171</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -3785,7 +3791,7 @@
         <v>171</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>3</v>
@@ -3796,7 +3802,7 @@
         <v>171</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>3</v>
@@ -3807,7 +3813,7 @@
         <v>171</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>3</v>
@@ -3818,7 +3824,7 @@
         <v>171</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>3</v>
@@ -3829,7 +3835,7 @@
         <v>171</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>3</v>
@@ -3840,7 +3846,7 @@
         <v>171</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>3</v>
@@ -3851,7 +3857,7 @@
         <v>171</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>3</v>
@@ -3869,10 +3875,10 @@
     </row>
     <row r="211" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>6</v>
@@ -3880,10 +3886,10 @@
     </row>
     <row r="212" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>6</v>
@@ -3891,98 +3897,98 @@
     </row>
     <row r="213" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>3</v>
@@ -3990,10 +3996,10 @@
     </row>
     <row r="222" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>3</v>
@@ -4001,10 +4007,10 @@
     </row>
     <row r="223" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>3</v>
@@ -4012,10 +4018,10 @@
     </row>
     <row r="224" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>3</v>
@@ -4023,10 +4029,10 @@
     </row>
     <row r="225" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>3</v>
@@ -4034,10 +4040,10 @@
     </row>
     <row r="226" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>3</v>
@@ -4045,10 +4051,10 @@
     </row>
     <row r="227" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>3</v>
@@ -4056,10 +4062,10 @@
     </row>
     <row r="228" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>3</v>
@@ -4067,10 +4073,10 @@
     </row>
     <row r="229" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>3</v>
@@ -4078,10 +4084,10 @@
     </row>
     <row r="230" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>3</v>
@@ -4089,10 +4095,10 @@
     </row>
     <row r="231" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>3</v>
@@ -4100,10 +4106,10 @@
     </row>
     <row r="232" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>3</v>
@@ -4119,21 +4125,21 @@
     </row>
     <row r="235" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>3</v>
@@ -4141,10 +4147,10 @@
     </row>
     <row r="237" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>3</v>
@@ -4152,10 +4158,10 @@
     </row>
     <row r="238" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>3</v>
@@ -4163,10 +4169,10 @@
     </row>
     <row r="239" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>3</v>
@@ -4174,10 +4180,10 @@
     </row>
     <row r="240" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>3</v>
@@ -4185,10 +4191,10 @@
     </row>
     <row r="241" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>3</v>
@@ -4196,10 +4202,10 @@
     </row>
     <row r="242" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>3</v>
@@ -4207,10 +4213,10 @@
     </row>
     <row r="243" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>3</v>
@@ -4218,10 +4224,10 @@
     </row>
     <row r="244" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>3</v>
@@ -4229,10 +4235,10 @@
     </row>
     <row r="245" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>3</v>
@@ -4240,10 +4246,10 @@
     </row>
     <row r="246" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>3</v>
@@ -4251,10 +4257,10 @@
     </row>
     <row r="247" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>3</v>
@@ -4262,10 +4268,10 @@
     </row>
     <row r="248" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>3</v>
@@ -4273,10 +4279,10 @@
     </row>
     <row r="249" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>3</v>
@@ -4284,10 +4290,10 @@
     </row>
     <row r="250" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>3</v>
@@ -4295,10 +4301,10 @@
     </row>
     <row r="251" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>3</v>
@@ -4306,10 +4312,10 @@
     </row>
     <row r="252" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>3</v>
@@ -4317,10 +4323,10 @@
     </row>
     <row r="253" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>3</v>
@@ -4328,10 +4334,10 @@
     </row>
     <row r="254" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>3</v>
@@ -4339,10 +4345,10 @@
     </row>
     <row r="255" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>3</v>
@@ -4350,10 +4356,10 @@
     </row>
     <row r="256" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>3</v>
@@ -4361,10 +4367,10 @@
     </row>
     <row r="257" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>3</v>
@@ -4372,10 +4378,10 @@
     </row>
     <row r="258" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>3</v>
@@ -4383,10 +4389,10 @@
     </row>
     <row r="259" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>3</v>
@@ -4394,10 +4400,10 @@
     </row>
     <row r="260" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>3</v>
@@ -4405,10 +4411,10 @@
     </row>
     <row r="261" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>3</v>
@@ -4416,10 +4422,10 @@
     </row>
     <row r="262" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>3</v>
@@ -4427,10 +4433,10 @@
     </row>
     <row r="263" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>3</v>
@@ -4438,10 +4444,10 @@
     </row>
     <row r="264" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>3</v>
@@ -4449,10 +4455,10 @@
     </row>
     <row r="265" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>3</v>
@@ -4460,10 +4466,10 @@
     </row>
     <row r="266" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>3</v>
@@ -4471,10 +4477,10 @@
     </row>
     <row r="267" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>3</v>
@@ -4482,7 +4488,7 @@
     </row>
     <row r="268" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>87</v>
@@ -4493,10 +4499,10 @@
     </row>
     <row r="269" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>3</v>
@@ -4512,43 +4518,43 @@
     </row>
     <row r="272" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>3</v>
@@ -4556,10 +4562,10 @@
     </row>
     <row r="276" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>3</v>
@@ -4567,10 +4573,10 @@
     </row>
     <row r="277" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>3</v>
@@ -4578,10 +4584,10 @@
     </row>
     <row r="278" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>3</v>
@@ -4589,10 +4595,10 @@
     </row>
     <row r="279" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>3</v>
@@ -4600,10 +4606,10 @@
     </row>
     <row r="280" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>3</v>
@@ -4611,10 +4617,10 @@
     </row>
     <row r="281" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>3</v>
@@ -4622,10 +4628,10 @@
     </row>
     <row r="282" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>3</v>
@@ -4633,10 +4639,10 @@
     </row>
     <row r="283" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>3</v>
@@ -4644,10 +4650,10 @@
     </row>
     <row r="284" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>3</v>
@@ -4655,10 +4661,10 @@
     </row>
     <row r="285" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>3</v>
@@ -4666,10 +4672,10 @@
     </row>
     <row r="286" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>3</v>
@@ -4677,10 +4683,10 @@
     </row>
     <row r="287" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>3</v>
@@ -4688,10 +4694,10 @@
     </row>
     <row r="288" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>3</v>
@@ -4699,10 +4705,10 @@
     </row>
     <row r="289" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>3</v>
@@ -4710,10 +4716,10 @@
     </row>
     <row r="290" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>3</v>
@@ -4729,10 +4735,10 @@
     </row>
     <row r="293" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>6</v>
@@ -4740,10 +4746,10 @@
     </row>
     <row r="294" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>6</v>
@@ -4751,10 +4757,10 @@
     </row>
     <row r="295" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>6</v>
@@ -4762,10 +4768,10 @@
     </row>
     <row r="296" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>6</v>
@@ -4773,10 +4779,10 @@
     </row>
     <row r="297" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>6</v>
@@ -4784,10 +4790,10 @@
     </row>
     <row r="298" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>6</v>
@@ -4795,10 +4801,10 @@
     </row>
     <row r="299" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>6</v>
@@ -4806,10 +4812,10 @@
     </row>
     <row r="300" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>6</v>
@@ -4817,10 +4823,10 @@
     </row>
     <row r="301" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>6</v>
@@ -4828,10 +4834,10 @@
     </row>
     <row r="302" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>6</v>
@@ -4839,10 +4845,10 @@
     </row>
     <row r="303" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>6</v>
@@ -4850,10 +4856,10 @@
     </row>
     <row r="304" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>6</v>
@@ -4861,10 +4867,10 @@
     </row>
     <row r="305" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>6</v>
@@ -4872,10 +4878,10 @@
     </row>
     <row r="306" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>6</v>
@@ -4883,10 +4889,10 @@
     </row>
     <row r="307" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>6</v>
@@ -4894,10 +4900,10 @@
     </row>
     <row r="308" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>3</v>
@@ -4905,10 +4911,10 @@
     </row>
     <row r="309" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>3</v>
@@ -4916,10 +4922,10 @@
     </row>
     <row r="310" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>3</v>
@@ -4927,10 +4933,10 @@
     </row>
     <row r="311" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>3</v>
@@ -4938,10 +4944,10 @@
     </row>
     <row r="312" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>3</v>
@@ -4949,10 +4955,10 @@
     </row>
     <row r="313" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>3</v>
@@ -4960,10 +4966,10 @@
     </row>
     <row r="314" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>3</v>
@@ -4971,10 +4977,10 @@
     </row>
     <row r="315" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>3</v>
@@ -4982,10 +4988,10 @@
     </row>
     <row r="316" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>6</v>
@@ -4993,10 +4999,10 @@
     </row>
     <row r="317" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>6</v>
@@ -5004,10 +5010,10 @@
     </row>
     <row r="318" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>3</v>
@@ -5015,10 +5021,10 @@
     </row>
     <row r="319" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>6</v>
@@ -5026,10 +5032,10 @@
     </row>
     <row r="320" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>3</v>
@@ -5037,10 +5043,10 @@
     </row>
     <row r="321" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>3</v>
@@ -5048,10 +5054,10 @@
     </row>
     <row r="322" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>3</v>
@@ -5059,10 +5065,10 @@
     </row>
     <row r="323" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>3</v>
@@ -5070,10 +5076,10 @@
     </row>
     <row r="324" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>3</v>
@@ -5081,10 +5087,10 @@
     </row>
     <row r="325" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>3</v>
@@ -5092,10 +5098,10 @@
     </row>
     <row r="326" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>3</v>
@@ -5103,10 +5109,10 @@
     </row>
     <row r="327" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>3</v>
@@ -5114,10 +5120,10 @@
     </row>
     <row r="328" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>3</v>
@@ -5125,10 +5131,10 @@
     </row>
     <row r="329" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>3</v>
@@ -5136,10 +5142,10 @@
     </row>
     <row r="330" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>3</v>
@@ -5155,10 +5161,10 @@
     </row>
     <row r="333" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>3</v>
@@ -5166,10 +5172,10 @@
     </row>
     <row r="334" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>3</v>
@@ -5177,10 +5183,10 @@
     </row>
     <row r="335" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>3</v>
@@ -5188,10 +5194,10 @@
     </row>
     <row r="336" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>3</v>
@@ -5199,10 +5205,10 @@
     </row>
     <row r="337" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>3</v>
@@ -5210,10 +5216,10 @@
     </row>
     <row r="338" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>3</v>
@@ -5221,10 +5227,10 @@
     </row>
     <row r="339" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>3</v>
@@ -5232,10 +5238,10 @@
     </row>
     <row r="340" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>3</v>
@@ -5243,10 +5249,10 @@
     </row>
     <row r="341" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>3</v>
@@ -5254,10 +5260,10 @@
     </row>
     <row r="342" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>3</v>
@@ -5265,10 +5271,10 @@
     </row>
     <row r="343" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>3</v>
@@ -5276,10 +5282,10 @@
     </row>
     <row r="344" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>3</v>
@@ -5287,10 +5293,10 @@
     </row>
     <row r="345" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>3</v>
@@ -5298,10 +5304,10 @@
     </row>
     <row r="346" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>3</v>
@@ -5309,10 +5315,10 @@
     </row>
     <row r="347" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>3</v>
@@ -5320,10 +5326,10 @@
     </row>
     <row r="348" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>3</v>
@@ -5331,10 +5337,10 @@
     </row>
     <row r="349" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>3</v>
@@ -5342,10 +5348,10 @@
     </row>
     <row r="350" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>3</v>
@@ -5361,10 +5367,10 @@
     </row>
     <row r="353" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>6</v>
@@ -5372,10 +5378,10 @@
     </row>
     <row r="354" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>6</v>
@@ -5383,10 +5389,10 @@
     </row>
     <row r="355" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>6</v>
@@ -5394,10 +5400,10 @@
     </row>
     <row r="356" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>6</v>
@@ -5405,10 +5411,10 @@
     </row>
     <row r="357" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>6</v>
@@ -5416,10 +5422,10 @@
     </row>
     <row r="358" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>6</v>
@@ -5427,10 +5433,10 @@
     </row>
     <row r="359" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>3</v>
@@ -5438,10 +5444,10 @@
     </row>
     <row r="360" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>3</v>
@@ -5449,10 +5455,10 @@
     </row>
     <row r="361" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>3</v>
@@ -5460,10 +5466,10 @@
     </row>
     <row r="362" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>3</v>
@@ -5471,10 +5477,10 @@
     </row>
     <row r="363" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>3</v>
@@ -5482,10 +5488,10 @@
     </row>
     <row r="364" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>6</v>
@@ -5493,10 +5499,10 @@
     </row>
     <row r="365" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>3</v>
@@ -5504,10 +5510,10 @@
     </row>
     <row r="366" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>3</v>
@@ -5515,10 +5521,10 @@
     </row>
     <row r="367" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>3</v>
@@ -5526,10 +5532,10 @@
     </row>
     <row r="368" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>3</v>
@@ -5537,10 +5543,10 @@
     </row>
     <row r="369" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>3</v>
@@ -5548,10 +5554,10 @@
     </row>
     <row r="370" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>3</v>
@@ -5559,10 +5565,10 @@
     </row>
     <row r="371" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>3</v>
@@ -5570,10 +5576,10 @@
     </row>
     <row r="372" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>3</v>
@@ -5581,10 +5587,10 @@
     </row>
     <row r="373" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>3</v>
@@ -5592,10 +5598,10 @@
     </row>
     <row r="374" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>3</v>
@@ -5603,10 +5609,10 @@
     </row>
     <row r="375" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>3</v>
@@ -5614,10 +5620,10 @@
     </row>
     <row r="376" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>3</v>
@@ -5625,10 +5631,10 @@
     </row>
     <row r="377" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>3</v>
@@ -5636,10 +5642,10 @@
     </row>
     <row r="378" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>3</v>
@@ -5647,10 +5653,10 @@
     </row>
     <row r="379" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>3</v>
@@ -5658,10 +5664,10 @@
     </row>
     <row r="380" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>3</v>
@@ -5669,10 +5675,10 @@
     </row>
     <row r="381" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>3</v>
@@ -5680,10 +5686,10 @@
     </row>
     <row r="382" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>3</v>
@@ -5691,10 +5697,10 @@
     </row>
     <row r="383" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>3</v>
@@ -5702,10 +5708,10 @@
     </row>
     <row r="384" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>3</v>
@@ -5713,10 +5719,10 @@
     </row>
     <row r="385" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>3</v>
@@ -5724,10 +5730,10 @@
     </row>
     <row r="386" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>3</v>
@@ -5735,10 +5741,10 @@
     </row>
     <row r="387" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>3</v>
@@ -5746,10 +5752,10 @@
     </row>
     <row r="388" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>3</v>
@@ -5757,10 +5763,10 @@
     </row>
     <row r="389" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>3</v>
@@ -5768,10 +5774,10 @@
     </row>
     <row r="390" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>3</v>
@@ -5779,10 +5785,10 @@
     </row>
     <row r="391" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>3</v>
@@ -5790,10 +5796,10 @@
     </row>
     <row r="392" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>3</v>
@@ -5801,10 +5807,10 @@
     </row>
     <row r="393" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>3</v>
@@ -5812,10 +5818,10 @@
     </row>
     <row r="394" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>3</v>
@@ -5823,10 +5829,10 @@
     </row>
     <row r="395" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>3</v>
@@ -5834,10 +5840,10 @@
     </row>
     <row r="396" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>3</v>
@@ -5853,10 +5859,10 @@
     </row>
     <row r="399" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>6</v>
@@ -5864,21 +5870,21 @@
     </row>
     <row r="400" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>3</v>
@@ -5886,7 +5892,7 @@
     </row>
     <row r="402" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>89</v>
@@ -5897,10 +5903,10 @@
     </row>
     <row r="403" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>3</v>
@@ -5908,10 +5914,10 @@
     </row>
     <row r="404" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>3</v>
@@ -5927,10 +5933,10 @@
     </row>
     <row r="407" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>6</v>
@@ -5938,10 +5944,10 @@
     </row>
     <row r="408" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>6</v>
@@ -5949,10 +5955,10 @@
     </row>
     <row r="409" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>6</v>
@@ -5960,54 +5966,54 @@
     </row>
     <row r="410" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>3</v>
@@ -6015,10 +6021,10 @@
     </row>
     <row r="415" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>3</v>
@@ -6026,10 +6032,10 @@
     </row>
     <row r="416" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>3</v>
@@ -6037,10 +6043,10 @@
     </row>
     <row r="417" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>3</v>
@@ -6048,10 +6054,10 @@
     </row>
     <row r="418" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>3</v>
@@ -6059,10 +6065,10 @@
     </row>
     <row r="419" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>3</v>
@@ -6070,10 +6076,10 @@
     </row>
     <row r="420" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>3</v>
@@ -6081,10 +6087,10 @@
     </row>
     <row r="421" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>3</v>
@@ -6092,10 +6098,10 @@
     </row>
     <row r="422" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>3</v>
@@ -6103,10 +6109,10 @@
     </row>
     <row r="423" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>3</v>
@@ -6114,10 +6120,10 @@
     </row>
     <row r="424" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>3</v>
@@ -6125,10 +6131,10 @@
     </row>
     <row r="425" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>3</v>
@@ -6136,10 +6142,10 @@
     </row>
     <row r="426" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>3</v>
@@ -6147,10 +6153,10 @@
     </row>
     <row r="427" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>3</v>
@@ -6158,10 +6164,10 @@
     </row>
     <row r="428" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>3</v>
@@ -6169,10 +6175,10 @@
     </row>
     <row r="429" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>3</v>
@@ -6180,10 +6186,10 @@
     </row>
     <row r="430" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>3</v>
@@ -6191,10 +6197,10 @@
     </row>
     <row r="431" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>3</v>
@@ -6202,10 +6208,10 @@
     </row>
     <row r="432" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>3</v>
@@ -6213,10 +6219,10 @@
     </row>
     <row r="433" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>3</v>
@@ -6224,10 +6230,10 @@
     </row>
     <row r="434" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>3</v>
@@ -6235,10 +6241,10 @@
     </row>
     <row r="435" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>3</v>
@@ -6246,10 +6252,10 @@
     </row>
     <row r="436" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>3</v>
@@ -6257,10 +6263,10 @@
     </row>
     <row r="437" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>3</v>
@@ -6268,10 +6274,10 @@
     </row>
     <row r="438" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>3</v>
@@ -6279,10 +6285,10 @@
     </row>
     <row r="439" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>3</v>
@@ -6290,10 +6296,10 @@
     </row>
     <row r="440" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>3</v>
@@ -6301,10 +6307,10 @@
     </row>
     <row r="441" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>3</v>
@@ -6312,10 +6318,10 @@
     </row>
     <row r="442" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>3</v>
@@ -6323,10 +6329,10 @@
     </row>
     <row r="443" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>3</v>
@@ -6334,10 +6340,10 @@
     </row>
     <row r="444" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>3</v>
@@ -6345,10 +6351,10 @@
     </row>
     <row r="445" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>3</v>
@@ -6356,10 +6362,10 @@
     </row>
     <row r="446" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>3</v>
@@ -6367,10 +6373,10 @@
     </row>
     <row r="447" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>3</v>
@@ -6378,10 +6384,10 @@
     </row>
     <row r="448" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>3</v>
@@ -6389,10 +6395,10 @@
     </row>
     <row r="449" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>3</v>
@@ -6400,10 +6406,10 @@
     </row>
     <row r="450" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>3</v>
@@ -6411,10 +6417,10 @@
     </row>
     <row r="451" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>3</v>
@@ -6422,10 +6428,10 @@
     </row>
     <row r="452" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>3</v>
@@ -6433,10 +6439,10 @@
     </row>
     <row r="453" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>3</v>
@@ -6444,10 +6450,10 @@
     </row>
     <row r="454" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>3</v>
@@ -6455,10 +6461,10 @@
     </row>
     <row r="455" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>3</v>
@@ -6466,10 +6472,10 @@
     </row>
     <row r="456" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>3</v>
@@ -6477,10 +6483,10 @@
     </row>
     <row r="457" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>3</v>
@@ -6488,10 +6494,10 @@
     </row>
     <row r="458" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>3</v>
@@ -6499,10 +6505,10 @@
     </row>
     <row r="459" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>3</v>
@@ -6510,10 +6516,10 @@
     </row>
     <row r="460" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>3</v>
@@ -6521,10 +6527,10 @@
     </row>
     <row r="461" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>3</v>
@@ -6532,10 +6538,10 @@
     </row>
     <row r="462" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>3</v>
@@ -6543,10 +6549,10 @@
     </row>
     <row r="463" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>3</v>
@@ -6554,10 +6560,10 @@
     </row>
     <row r="464" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>3</v>
@@ -6565,10 +6571,10 @@
     </row>
     <row r="465" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>3</v>
@@ -6576,10 +6582,10 @@
     </row>
     <row r="466" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>3</v>
@@ -6596,10 +6602,10 @@
     </row>
     <row r="469" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>6</v>
@@ -6607,10 +6613,10 @@
     </row>
     <row r="470" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>6</v>
@@ -6618,10 +6624,10 @@
     </row>
     <row r="471" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>3</v>
@@ -6629,10 +6635,10 @@
     </row>
     <row r="472" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>3</v>
@@ -6640,10 +6646,10 @@
     </row>
     <row r="473" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>3</v>
@@ -6651,10 +6657,10 @@
     </row>
     <row r="474" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>3</v>
@@ -6662,10 +6668,10 @@
     </row>
     <row r="475" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>3</v>
@@ -6673,10 +6679,10 @@
     </row>
     <row r="476" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>3</v>
@@ -6684,10 +6690,10 @@
     </row>
     <row r="477" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>3</v>
@@ -6695,10 +6701,10 @@
     </row>
     <row r="478" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>3</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1649,8 +1649,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A230" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C235" activeCellId="0" sqref="C235"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,7 +1849,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1860,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +1871,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1893,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1937,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1970,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,7 +1992,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +2014,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,7 +2047,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,7 +2069,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,7 +5439,7 @@
         <v>352</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1649,8 +1649,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C370" activeCellId="0" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5560,7 +5560,7 @@
         <v>363</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
